--- a/modelos/OBAFAR4421118/OBAFAR4421118_Sell in_metricas.xlsx
+++ b/modelos/OBAFAR4421118/OBAFAR4421118_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,59 +473,59 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44852</v>
+        <v>44859</v>
       </c>
       <c r="B2" t="n">
-        <v>338.8005019871956</v>
+        <v>167.5213628069858</v>
       </c>
       <c r="C2" t="n">
-        <v>-68.3205704376563</v>
+        <v>-288.0616812632992</v>
       </c>
       <c r="D2" t="n">
-        <v>737.4268316748016</v>
+        <v>599.9428254487146</v>
       </c>
       <c r="E2" t="n">
-        <v>470</v>
+        <v>170</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44848</v>
+        <v>44855</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44859</v>
+        <v>44865</v>
       </c>
       <c r="B3" t="n">
-        <v>156.7819415211588</v>
+        <v>-462.2158302740787</v>
       </c>
       <c r="C3" t="n">
-        <v>-268.2028286865441</v>
+        <v>-879.306326810346</v>
       </c>
       <c r="D3" t="n">
-        <v>570.5924491953535</v>
+        <v>-16.46230976361424</v>
       </c>
       <c r="E3" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44855</v>
+        <v>44862</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44865</v>
+        <v>44869</v>
       </c>
       <c r="B4" t="n">
-        <v>-442.7207701474505</v>
+        <v>-352.6242030148243</v>
       </c>
       <c r="C4" t="n">
-        <v>-838.0326734091593</v>
+        <v>-737.9244844260656</v>
       </c>
       <c r="D4" t="n">
-        <v>-28.24740213763993</v>
+        <v>96.30232083615556</v>
       </c>
       <c r="E4" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>44862</v>
@@ -533,39 +533,39 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44869</v>
+        <v>44897</v>
       </c>
       <c r="B5" t="n">
-        <v>-322.7745283330215</v>
+        <v>58.96814449668192</v>
       </c>
       <c r="C5" t="n">
-        <v>-718.031985273911</v>
+        <v>-350.4916754600341</v>
       </c>
       <c r="D5" t="n">
-        <v>95.41620171343338</v>
+        <v>475.418302890058</v>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>650</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44862</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="B6" t="n">
-        <v>70.08071439415649</v>
+        <v>231.9317657458163</v>
       </c>
       <c r="C6" t="n">
-        <v>-312.139322009067</v>
+        <v>-170.6876455274451</v>
       </c>
       <c r="D6" t="n">
-        <v>449.320023399422</v>
+        <v>667.145167743812</v>
       </c>
       <c r="E6" t="n">
-        <v>650</v>
+        <v>910</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>44894</v>
@@ -573,199 +573,199 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="B7" t="n">
+        <v>208.3021609659636</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-209.8582786808022</v>
+      </c>
+      <c r="D7" t="n">
+        <v>628.8214925039595</v>
+      </c>
+      <c r="E7" t="n">
+        <v>140</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>44901</v>
-      </c>
-      <c r="B7" t="n">
-        <v>223.0755075339025</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-225.4541502716071</v>
-      </c>
-      <c r="D7" t="n">
-        <v>635.2826791110017</v>
-      </c>
-      <c r="E7" t="n">
-        <v>910</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>44894</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
+        <v>44915</v>
+      </c>
+      <c r="B8" t="n">
+        <v>210.2854018992475</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-208.085901681295</v>
+      </c>
+      <c r="D8" t="n">
+        <v>650.3046889267277</v>
+      </c>
+      <c r="E8" t="n">
+        <v>210</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>44908</v>
-      </c>
-      <c r="B8" t="n">
-        <v>203.1506897236569</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-210.8264642721</v>
-      </c>
-      <c r="D8" t="n">
-        <v>628.8745228456786</v>
-      </c>
-      <c r="E8" t="n">
-        <v>140</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>44901</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
+        <v>44922</v>
+      </c>
+      <c r="B9" t="n">
+        <v>384.473242539156</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-79.97607926490542</v>
+      </c>
+      <c r="D9" t="n">
+        <v>789.6600161080116</v>
+      </c>
+      <c r="E9" t="n">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <v>44915</v>
-      </c>
-      <c r="B9" t="n">
-        <v>209.4402447326981</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-205.1182461272109</v>
-      </c>
-      <c r="D9" t="n">
-        <v>597.3943231801394</v>
-      </c>
-      <c r="E9" t="n">
-        <v>210</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>44908</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B10" t="n">
+        <v>482.3183194232404</v>
+      </c>
+      <c r="C10" t="n">
+        <v>29.09021554866981</v>
+      </c>
+      <c r="D10" t="n">
+        <v>928.4952711610175</v>
+      </c>
+      <c r="E10" t="n">
+        <v>190</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>44922</v>
-      </c>
-      <c r="B10" t="n">
-        <v>348.189033283281</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-43.66152889159533</v>
-      </c>
-      <c r="D10" t="n">
-        <v>763.1262231331625</v>
-      </c>
-      <c r="E10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>44915</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="B11" t="n">
+        <v>461.9322585471135</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16.02845880348608</v>
+      </c>
+      <c r="D11" t="n">
+        <v>884.8216082095548</v>
+      </c>
+      <c r="E11" t="n">
+        <v>290</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>44929</v>
-      </c>
-      <c r="B11" t="n">
-        <v>420.0243389490609</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-14.97898616156229</v>
-      </c>
-      <c r="D11" t="n">
-        <v>840.4304497819237</v>
-      </c>
-      <c r="E11" t="n">
-        <v>190</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>44922</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="B12" t="n">
+        <v>362.7575024532214</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-49.83747188029639</v>
+      </c>
+      <c r="D12" t="n">
+        <v>776.7739908644362</v>
+      </c>
+      <c r="E12" t="n">
+        <v>790</v>
+      </c>
+      <c r="F12" s="2" t="n">
         <v>44936</v>
-      </c>
-      <c r="B12" t="n">
-        <v>376.3625790080458</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-66.99467569683287</v>
-      </c>
-      <c r="D12" t="n">
-        <v>806.7889881472054</v>
-      </c>
-      <c r="E12" t="n">
-        <v>290</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>44929</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
+        <v>44950</v>
+      </c>
+      <c r="B13" t="n">
+        <v>342.5524663635745</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-74.63753761921315</v>
+      </c>
+      <c r="D13" t="n">
+        <v>774.639346497976</v>
+      </c>
+      <c r="E13" t="n">
+        <v>330</v>
+      </c>
+      <c r="F13" s="2" t="n">
         <v>44943</v>
-      </c>
-      <c r="B13" t="n">
-        <v>288.9081926746267</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-105.4290041861498</v>
-      </c>
-      <c r="D13" t="n">
-        <v>699.7085660029887</v>
-      </c>
-      <c r="E13" t="n">
-        <v>790</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>44936</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B14" t="n">
+        <v>313.2816776600309</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-101.7124670743561</v>
+      </c>
+      <c r="D14" t="n">
+        <v>762.2401385703773</v>
+      </c>
+      <c r="E14" t="n">
+        <v>130</v>
+      </c>
+      <c r="F14" s="2" t="n">
         <v>44950</v>
-      </c>
-      <c r="B14" t="n">
-        <v>289.0497458964689</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-108.2511506070656</v>
-      </c>
-      <c r="D14" t="n">
-        <v>732.1667607924991</v>
-      </c>
-      <c r="E14" t="n">
-        <v>330</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>44943</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="B15" t="n">
+        <v>31.51509305315236</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-426.5194569914412</v>
+      </c>
+      <c r="D15" t="n">
+        <v>454.2440256310945</v>
+      </c>
+      <c r="E15" t="n">
+        <v>90</v>
+      </c>
+      <c r="F15" s="2" t="n">
         <v>44957</v>
-      </c>
-      <c r="B15" t="n">
-        <v>296.8457273207225</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-143.6237194170867</v>
-      </c>
-      <c r="D15" t="n">
-        <v>711.6661192210431</v>
-      </c>
-      <c r="E15" t="n">
-        <v>130</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>44950</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="B16" t="n">
-        <v>47.40976954418687</v>
+        <v>272.7924451420321</v>
       </c>
       <c r="C16" t="n">
-        <v>-368.7460831731805</v>
+        <v>-174.6765550470786</v>
       </c>
       <c r="D16" t="n">
-        <v>439.1329121396354</v>
+        <v>651.1852477831521</v>
       </c>
       <c r="E16" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>44957</v>
@@ -773,59 +773,59 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="B17" t="n">
+        <v>247.5770090416381</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-161.6231420199939</v>
+      </c>
+      <c r="D17" t="n">
+        <v>685.3906503754755</v>
+      </c>
+      <c r="E17" t="n">
+        <v>250</v>
+      </c>
+      <c r="F17" s="2" t="n">
         <v>44964</v>
-      </c>
-      <c r="B17" t="n">
-        <v>283.053740436662</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-121.9822854346557</v>
-      </c>
-      <c r="D17" t="n">
-        <v>695.1445181902836</v>
-      </c>
-      <c r="E17" t="n">
-        <v>170</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>44957</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44971</v>
+        <v>44980</v>
       </c>
       <c r="B18" t="n">
-        <v>268.3250229633167</v>
+        <v>-200.7937442356821</v>
       </c>
       <c r="C18" t="n">
-        <v>-145.7682771440922</v>
+        <v>-658.3892918523221</v>
       </c>
       <c r="D18" t="n">
-        <v>717.9889124822456</v>
+        <v>228.3898503005551</v>
       </c>
       <c r="E18" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44964</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="B19" t="n">
-        <v>-206.3567880305752</v>
+        <v>512.3183393861153</v>
       </c>
       <c r="C19" t="n">
-        <v>-609.51779404304</v>
+        <v>101.9256556127121</v>
       </c>
       <c r="D19" t="n">
-        <v>205.5252747265424</v>
+        <v>922.3413729235302</v>
       </c>
       <c r="E19" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>44978</v>
@@ -833,39 +833,39 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="B20" t="n">
+        <v>333.8941519565108</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-52.26113331093033</v>
+      </c>
+      <c r="D20" t="n">
+        <v>749.7076814184858</v>
+      </c>
+      <c r="E20" t="n">
+        <v>80</v>
+      </c>
+      <c r="F20" s="2" t="n">
         <v>44985</v>
-      </c>
-      <c r="B20" t="n">
-        <v>480.9088485876999</v>
-      </c>
-      <c r="C20" t="n">
-        <v>41.88209948393683</v>
-      </c>
-      <c r="D20" t="n">
-        <v>913.4537959125597</v>
-      </c>
-      <c r="E20" t="n">
-        <v>100</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>44978</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="B21" t="n">
-        <v>308.7591036238862</v>
+        <v>724.9191221052442</v>
       </c>
       <c r="C21" t="n">
-        <v>-105.7106668412362</v>
+        <v>304.4207695981445</v>
       </c>
       <c r="D21" t="n">
-        <v>731.8100388797332</v>
+        <v>1134.34291702075</v>
       </c>
       <c r="E21" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>44985</v>
@@ -873,221 +873,201 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>773.2139149270824</v>
+      </c>
+      <c r="C22" t="n">
+        <v>379.0537050147874</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1190.920787725895</v>
+      </c>
+      <c r="E22" t="n">
+        <v>510</v>
+      </c>
+      <c r="F22" s="2" t="n">
         <v>44992</v>
-      </c>
-      <c r="B22" t="n">
-        <v>649.4599022949378</v>
-      </c>
-      <c r="C22" t="n">
-        <v>254.3714520516924</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1058.648497790319</v>
-      </c>
-      <c r="E22" t="n">
-        <v>240</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>44985</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="B23" t="n">
+        <v>617.0691335437511</v>
+      </c>
+      <c r="C23" t="n">
+        <v>229.9518941861117</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1037.907500277377</v>
+      </c>
+      <c r="E23" t="n">
+        <v>330</v>
+      </c>
+      <c r="F23" s="2" t="n">
         <v>44999</v>
-      </c>
-      <c r="B23" t="n">
-        <v>675.450528485243</v>
-      </c>
-      <c r="C23" t="n">
-        <v>252.2249792341578</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1118.543621791101</v>
-      </c>
-      <c r="E23" t="n">
-        <v>510</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>44992</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="B24" t="n">
+        <v>333.9843154942242</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-77.80371398341478</v>
+      </c>
+      <c r="D24" t="n">
+        <v>754.2765923307198</v>
+      </c>
+      <c r="E24" t="n">
+        <v>170</v>
+      </c>
+      <c r="F24" s="2" t="n">
         <v>45006</v>
-      </c>
-      <c r="B24" t="n">
-        <v>523.8501300270635</v>
-      </c>
-      <c r="C24" t="n">
-        <v>109.5539179048905</v>
-      </c>
-      <c r="D24" t="n">
-        <v>906.989387816884</v>
-      </c>
-      <c r="E24" t="n">
-        <v>330</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>44999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="B25" t="n">
+        <v>190.1347234209003</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-238.7219733644306</v>
+      </c>
+      <c r="D25" t="n">
+        <v>607.8161941950583</v>
+      </c>
+      <c r="E25" t="n">
+        <v>190</v>
+      </c>
+      <c r="F25" s="2" t="n">
         <v>45013</v>
-      </c>
-      <c r="B25" t="n">
-        <v>261.4942524813181</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-155.1690522542601</v>
-      </c>
-      <c r="D25" t="n">
-        <v>684.1898742011017</v>
-      </c>
-      <c r="E25" t="n">
-        <v>170</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>45006</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="B26" t="n">
+        <v>367.6563603310813</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-47.01911197216614</v>
+      </c>
+      <c r="D26" t="n">
+        <v>800.8873704711278</v>
+      </c>
+      <c r="E26" t="n">
+        <v>490</v>
+      </c>
+      <c r="F26" s="2" t="n">
         <v>45020</v>
-      </c>
-      <c r="B26" t="n">
-        <v>196.1175864218114</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-201.5365480038725</v>
-      </c>
-      <c r="D26" t="n">
-        <v>586.9040825595786</v>
-      </c>
-      <c r="E26" t="n">
-        <v>190</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>45013</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B27" t="n">
+        <v>714.2366291657844</v>
+      </c>
+      <c r="C27" t="n">
+        <v>280.8571767375789</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1114.53643845858</v>
+      </c>
+      <c r="E27" t="n">
+        <v>670</v>
+      </c>
+      <c r="F27" s="2" t="n">
         <v>45027</v>
-      </c>
-      <c r="B27" t="n">
-        <v>452.7492273196589</v>
-      </c>
-      <c r="C27" t="n">
-        <v>65.13696934942435</v>
-      </c>
-      <c r="D27" t="n">
-        <v>874.5694891280878</v>
-      </c>
-      <c r="E27" t="n">
-        <v>490</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>45020</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B28" t="n">
+        <v>484.5745020226215</v>
+      </c>
+      <c r="C28" t="n">
+        <v>65.38230665836453</v>
+      </c>
+      <c r="D28" t="n">
+        <v>899.2114835825672</v>
+      </c>
+      <c r="E28" t="n">
+        <v>630</v>
+      </c>
+      <c r="F28" s="2" t="n">
         <v>45034</v>
-      </c>
-      <c r="B28" t="n">
-        <v>851.5578201885205</v>
-      </c>
-      <c r="C28" t="n">
-        <v>470.0387366164411</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1256.32765996073</v>
-      </c>
-      <c r="E28" t="n">
-        <v>670</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>45027</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45040</v>
+        <v>45048</v>
       </c>
       <c r="B29" t="n">
-        <v>665.2026935079874</v>
+        <v>754.8123594592513</v>
       </c>
       <c r="C29" t="n">
-        <v>265.4065385537496</v>
+        <v>354.0212026329734</v>
       </c>
       <c r="D29" t="n">
-        <v>1082.096396669193</v>
+        <v>1146.161997621169</v>
       </c>
       <c r="E29" t="n">
-        <v>630</v>
+        <v>500</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45034</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B30" t="n">
+        <v>331.3682278986228</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-89.92153182796727</v>
+      </c>
+      <c r="D30" t="n">
+        <v>734.699886028611</v>
+      </c>
+      <c r="E30" t="n">
+        <v>200</v>
+      </c>
+      <c r="F30" s="2" t="n">
         <v>45048</v>
-      </c>
-      <c r="B30" t="n">
-        <v>849.3806161362393</v>
-      </c>
-      <c r="C30" t="n">
-        <v>448.4372437377822</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1258.235564870276</v>
-      </c>
-      <c r="E30" t="n">
-        <v>500</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>45041</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45055</v>
+        <v>45062</v>
       </c>
       <c r="B31" t="n">
-        <v>374.5215601684766</v>
+        <v>-1.009503655026222</v>
       </c>
       <c r="C31" t="n">
-        <v>-64.04159340195646</v>
+        <v>-399.064932255578</v>
       </c>
       <c r="D31" t="n">
-        <v>781.8615567105129</v>
+        <v>423.8063012509759</v>
       </c>
       <c r="E31" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45048</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B32" t="n">
-        <v>-2.857063344123418</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-421.3479069473546</v>
-      </c>
-      <c r="D32" t="n">
-        <v>401.6754509567168</v>
-      </c>
-      <c r="E32" t="n">
-        <v>130</v>
-      </c>
-      <c r="F32" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1157,22 +1137,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>185442.2361007155</v>
+        <v>198002.4004490429</v>
       </c>
       <c r="C2" t="n">
-        <v>430.6300455155393</v>
+        <v>444.974606521589</v>
       </c>
       <c r="D2" t="n">
-        <v>360.9973474582483</v>
+        <v>378.9066861701888</v>
       </c>
       <c r="E2" t="n">
-        <v>2.044092223860158</v>
+        <v>2.203556961264268</v>
       </c>
       <c r="F2" t="n">
-        <v>1.87583615580763</v>
+        <v>2.041478338576899</v>
       </c>
       <c r="G2" t="n">
-        <v>1.351868885733711</v>
+        <v>1.464187998874175</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
@@ -1183,25 +1163,25 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>67610.08714982581</v>
+        <v>132003.6481801402</v>
       </c>
       <c r="C3" t="n">
-        <v>260.0193976414564</v>
+        <v>363.3230630996884</v>
       </c>
       <c r="D3" t="n">
-        <v>168.4716346499647</v>
+        <v>253.4306698444639</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8003311257140542</v>
+        <v>1.473898047103658</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2791478681123498</v>
+        <v>0.6498322994094182</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5857323467677956</v>
+        <v>0.9810210961623101</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -1209,25 +1189,25 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>6209.084992993076</v>
+        <v>73052.37318444865</v>
       </c>
       <c r="C4" t="n">
-        <v>78.79774738527159</v>
+        <v>270.282025270732</v>
       </c>
       <c r="D4" t="n">
-        <v>59.87341666654434</v>
+        <v>175.6036071135271</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1375928148548412</v>
+        <v>0.8163237679401073</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0777532851696542</v>
+        <v>0.2308341237736166</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1532289135266974</v>
+        <v>0.5799425945086192</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="5">
@@ -1235,25 +1215,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>72337.91147160414</v>
+        <v>78121.8909635311</v>
       </c>
       <c r="C5" t="n">
-        <v>268.9570810958584</v>
+        <v>279.5029355186294</v>
       </c>
       <c r="D5" t="n">
-        <v>205.2652630432976</v>
+        <v>217.0306872625839</v>
       </c>
       <c r="E5" t="n">
-        <v>1.174339129747026</v>
+        <v>1.290465977454533</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6342934269941435</v>
+        <v>0.6046614420119534</v>
       </c>
       <c r="G5" t="n">
-        <v>0.668311777633147</v>
+        <v>0.6868182062320507</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8695652173913047</v>
+        <v>0.8260869565217396</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAFAR4421118/OBAFAR4421118_Sell in_metricas.xlsx
+++ b/modelos/OBAFAR4421118/OBAFAR4421118_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,59 +473,59 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
       <c r="B2" t="n">
-        <v>167.5213628069858</v>
+        <v>363.9714390480751</v>
       </c>
       <c r="C2" t="n">
-        <v>-288.0616812632992</v>
+        <v>-74.3506656987326</v>
       </c>
       <c r="D2" t="n">
-        <v>599.9428254487146</v>
+        <v>773.9359126943455</v>
       </c>
       <c r="E2" t="n">
-        <v>170</v>
+        <v>470</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44855</v>
+        <v>44848</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44865</v>
+        <v>44859</v>
       </c>
       <c r="B3" t="n">
-        <v>-462.2158302740787</v>
+        <v>169.6102991247787</v>
       </c>
       <c r="C3" t="n">
-        <v>-879.306326810346</v>
+        <v>-218.2330570811989</v>
       </c>
       <c r="D3" t="n">
-        <v>-16.46230976361424</v>
+        <v>589.9447062079674</v>
       </c>
       <c r="E3" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44862</v>
+        <v>44855</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44869</v>
+        <v>44865</v>
       </c>
       <c r="B4" t="n">
-        <v>-352.6242030148243</v>
+        <v>-435.949051725399</v>
       </c>
       <c r="C4" t="n">
-        <v>-737.9244844260656</v>
+        <v>-812.3596751366455</v>
       </c>
       <c r="D4" t="n">
-        <v>96.30232083615556</v>
+        <v>-15.70784832114568</v>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>44862</v>
@@ -533,39 +533,39 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44897</v>
+        <v>44869</v>
       </c>
       <c r="B5" t="n">
-        <v>58.96814449668192</v>
+        <v>-317.7318630201445</v>
       </c>
       <c r="C5" t="n">
-        <v>-350.4916754600341</v>
+        <v>-691.34939696478</v>
       </c>
       <c r="D5" t="n">
-        <v>475.418302890058</v>
+        <v>83.82261422791849</v>
       </c>
       <c r="E5" t="n">
-        <v>650</v>
+        <v>70</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44894</v>
+        <v>44862</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44901</v>
+        <v>44897</v>
       </c>
       <c r="B6" t="n">
-        <v>231.9317657458163</v>
+        <v>68.39309834137454</v>
       </c>
       <c r="C6" t="n">
-        <v>-170.6876455274451</v>
+        <v>-303.5679698138133</v>
       </c>
       <c r="D6" t="n">
-        <v>667.145167743812</v>
+        <v>449.6865842770666</v>
       </c>
       <c r="E6" t="n">
-        <v>910</v>
+        <v>650</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>44894</v>
@@ -573,199 +573,199 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
       <c r="B7" t="n">
-        <v>208.3021609659636</v>
+        <v>240.305370373884</v>
       </c>
       <c r="C7" t="n">
-        <v>-209.8582786808022</v>
+        <v>-183.1806400462696</v>
       </c>
       <c r="D7" t="n">
-        <v>628.8214925039595</v>
+        <v>642.3256601321204</v>
       </c>
       <c r="E7" t="n">
-        <v>140</v>
+        <v>910</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
       <c r="B8" t="n">
-        <v>210.2854018992475</v>
+        <v>228.1777547566634</v>
       </c>
       <c r="C8" t="n">
-        <v>-208.085901681295</v>
+        <v>-205.5519700556084</v>
       </c>
       <c r="D8" t="n">
-        <v>650.3046889267277</v>
+        <v>647.7069235832776</v>
       </c>
       <c r="E8" t="n">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
       <c r="B9" t="n">
-        <v>384.473242539156</v>
+        <v>238.7254697213039</v>
       </c>
       <c r="C9" t="n">
-        <v>-79.97607926490542</v>
+        <v>-161.2143126765759</v>
       </c>
       <c r="D9" t="n">
-        <v>789.6600161080116</v>
+        <v>671.5669231244754</v>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
       <c r="B10" t="n">
-        <v>482.3183194232404</v>
+        <v>364.1699055569585</v>
       </c>
       <c r="C10" t="n">
-        <v>29.09021554866981</v>
+        <v>-65.61818094226149</v>
       </c>
       <c r="D10" t="n">
-        <v>928.4952711610175</v>
+        <v>746.4371626607536</v>
       </c>
       <c r="E10" t="n">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44936</v>
+        <v>44929</v>
       </c>
       <c r="B11" t="n">
-        <v>461.9322585471135</v>
+        <v>429.440063329965</v>
       </c>
       <c r="C11" t="n">
-        <v>16.02845880348608</v>
+        <v>-11.73675235168345</v>
       </c>
       <c r="D11" t="n">
-        <v>884.8216082095548</v>
+        <v>834.7776313882492</v>
       </c>
       <c r="E11" t="n">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44943</v>
+        <v>44936</v>
       </c>
       <c r="B12" t="n">
-        <v>362.7575024532214</v>
+        <v>386.5505563242751</v>
       </c>
       <c r="C12" t="n">
-        <v>-49.83747188029639</v>
+        <v>-34.76116034184427</v>
       </c>
       <c r="D12" t="n">
-        <v>776.7739908644362</v>
+        <v>767.5591096541117</v>
       </c>
       <c r="E12" t="n">
-        <v>790</v>
+        <v>290</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44936</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44950</v>
+        <v>44943</v>
       </c>
       <c r="B13" t="n">
-        <v>342.5524663635745</v>
+        <v>308.2284008394002</v>
       </c>
       <c r="C13" t="n">
-        <v>-74.63753761921315</v>
+        <v>-112.6117326050399</v>
       </c>
       <c r="D13" t="n">
-        <v>774.639346497976</v>
+        <v>715.5185735524763</v>
       </c>
       <c r="E13" t="n">
-        <v>330</v>
+        <v>790</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44943</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
       <c r="B14" t="n">
-        <v>313.2816776600309</v>
+        <v>306.1321650775109</v>
       </c>
       <c r="C14" t="n">
-        <v>-101.7124670743561</v>
+        <v>-94.19077280369612</v>
       </c>
       <c r="D14" t="n">
-        <v>762.2401385703773</v>
+        <v>743.7863741722282</v>
       </c>
       <c r="E14" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44950</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44960</v>
+        <v>44957</v>
       </c>
       <c r="B15" t="n">
-        <v>31.51509305315236</v>
+        <v>308.5824831659869</v>
       </c>
       <c r="C15" t="n">
-        <v>-426.5194569914412</v>
+        <v>-101.9854845269394</v>
       </c>
       <c r="D15" t="n">
-        <v>454.2440256310945</v>
+        <v>714.4663307863714</v>
       </c>
       <c r="E15" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44964</v>
+        <v>44960</v>
       </c>
       <c r="B16" t="n">
-        <v>272.7924451420321</v>
+        <v>44.23413240918912</v>
       </c>
       <c r="C16" t="n">
-        <v>-174.6765550470786</v>
+        <v>-384.2992505518594</v>
       </c>
       <c r="D16" t="n">
-        <v>651.1852477831521</v>
+        <v>462.467560733376</v>
       </c>
       <c r="E16" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>44957</v>
@@ -773,59 +773,59 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44971</v>
+        <v>44964</v>
       </c>
       <c r="B17" t="n">
-        <v>247.5770090416381</v>
+        <v>287.0112557835837</v>
       </c>
       <c r="C17" t="n">
-        <v>-161.6231420199939</v>
+        <v>-97.44282404173391</v>
       </c>
       <c r="D17" t="n">
-        <v>685.3906503754755</v>
+        <v>685.8647993844754</v>
       </c>
       <c r="E17" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44980</v>
+        <v>44971</v>
       </c>
       <c r="B18" t="n">
-        <v>-200.7937442356821</v>
+        <v>277.1597578092266</v>
       </c>
       <c r="C18" t="n">
-        <v>-658.3892918523221</v>
+        <v>-126.449307002607</v>
       </c>
       <c r="D18" t="n">
-        <v>228.3898503005551</v>
+        <v>680.2143896176595</v>
       </c>
       <c r="E18" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="B19" t="n">
-        <v>512.3183393861153</v>
+        <v>-176.6557382623677</v>
       </c>
       <c r="C19" t="n">
-        <v>101.9256556127121</v>
+        <v>-583.4262662480572</v>
       </c>
       <c r="D19" t="n">
-        <v>922.3413729235302</v>
+        <v>239.1171761452891</v>
       </c>
       <c r="E19" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>44978</v>
@@ -833,39 +833,39 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44988</v>
+        <v>44985</v>
       </c>
       <c r="B20" t="n">
-        <v>333.8941519565108</v>
+        <v>499.5069115556726</v>
       </c>
       <c r="C20" t="n">
-        <v>-52.26113331093033</v>
+        <v>83.47111710767609</v>
       </c>
       <c r="D20" t="n">
-        <v>749.7076814184858</v>
+        <v>877.5126996138415</v>
       </c>
       <c r="E20" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44992</v>
+        <v>44988</v>
       </c>
       <c r="B21" t="n">
-        <v>724.9191221052442</v>
+        <v>309.0191676151035</v>
       </c>
       <c r="C21" t="n">
-        <v>304.4207695981445</v>
+        <v>-121.9332985785562</v>
       </c>
       <c r="D21" t="n">
-        <v>1134.34291702075</v>
+        <v>691.3767967081752</v>
       </c>
       <c r="E21" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>44985</v>
@@ -873,201 +873,221 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="B22" t="n">
-        <v>773.2139149270824</v>
+        <v>647.7539092598339</v>
       </c>
       <c r="C22" t="n">
-        <v>379.0537050147874</v>
+        <v>237.4639148408374</v>
       </c>
       <c r="D22" t="n">
-        <v>1190.920787725895</v>
+        <v>1080.295586866727</v>
       </c>
       <c r="E22" t="n">
-        <v>510</v>
+        <v>240</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
       <c r="B23" t="n">
-        <v>617.0691335437511</v>
+        <v>668.5148524982286</v>
       </c>
       <c r="C23" t="n">
-        <v>229.9518941861117</v>
+        <v>257.0356190256744</v>
       </c>
       <c r="D23" t="n">
-        <v>1037.907500277377</v>
+        <v>1065.480831763257</v>
       </c>
       <c r="E23" t="n">
-        <v>330</v>
+        <v>510</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
       <c r="B24" t="n">
-        <v>333.9843154942242</v>
+        <v>524.0358441718065</v>
       </c>
       <c r="C24" t="n">
-        <v>-77.80371398341478</v>
+        <v>154.3997954435922</v>
       </c>
       <c r="D24" t="n">
-        <v>754.2765923307198</v>
+        <v>946.7016173223798</v>
       </c>
       <c r="E24" t="n">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="B25" t="n">
-        <v>190.1347234209003</v>
+        <v>298.3766070512719</v>
       </c>
       <c r="C25" t="n">
-        <v>-238.7219733644306</v>
+        <v>-71.98507670830851</v>
       </c>
       <c r="D25" t="n">
-        <v>607.8161941950583</v>
+        <v>713.7926960843687</v>
       </c>
       <c r="E25" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
       <c r="B26" t="n">
-        <v>367.6563603310813</v>
+        <v>223.7427295965515</v>
       </c>
       <c r="C26" t="n">
-        <v>-47.01911197216614</v>
+        <v>-154.7957302394579</v>
       </c>
       <c r="D26" t="n">
-        <v>800.8873704711278</v>
+        <v>635.0884735443402</v>
       </c>
       <c r="E26" t="n">
-        <v>490</v>
+        <v>190</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
       <c r="B27" t="n">
-        <v>714.2366291657844</v>
+        <v>423.6464405081309</v>
       </c>
       <c r="C27" t="n">
-        <v>280.8571767375789</v>
+        <v>21.68478499136256</v>
       </c>
       <c r="D27" t="n">
-        <v>1114.53643845858</v>
+        <v>820.1249859854777</v>
       </c>
       <c r="E27" t="n">
-        <v>670</v>
+        <v>490</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45040</v>
+        <v>45034</v>
       </c>
       <c r="B28" t="n">
-        <v>484.5745020226215</v>
+        <v>732.2947537439871</v>
       </c>
       <c r="C28" t="n">
-        <v>65.38230665836453</v>
+        <v>323.8281865306028</v>
       </c>
       <c r="D28" t="n">
-        <v>899.2114835825672</v>
+        <v>1139.480877598322</v>
       </c>
       <c r="E28" t="n">
-        <v>630</v>
+        <v>670</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45048</v>
+        <v>45040</v>
       </c>
       <c r="B29" t="n">
-        <v>754.8123594592513</v>
+        <v>514.0722552478243</v>
       </c>
       <c r="C29" t="n">
-        <v>354.0212026329734</v>
+        <v>109.9561341182888</v>
       </c>
       <c r="D29" t="n">
-        <v>1146.161997621169</v>
+        <v>904.6229294961295</v>
       </c>
       <c r="E29" t="n">
-        <v>500</v>
+        <v>630</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45041</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45055</v>
+        <v>45048</v>
       </c>
       <c r="B30" t="n">
-        <v>331.3682278986228</v>
+        <v>745.321321291455</v>
       </c>
       <c r="C30" t="n">
-        <v>-89.92153182796727</v>
+        <v>372.1358448218978</v>
       </c>
       <c r="D30" t="n">
-        <v>734.699886028611</v>
+        <v>1151.411175729717</v>
       </c>
       <c r="E30" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45048</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B31" t="n">
+        <v>348.0432967903595</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-40.27520623234304</v>
+      </c>
+      <c r="D31" t="n">
+        <v>744.3344622535773</v>
+      </c>
+      <c r="E31" t="n">
+        <v>200</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B31" t="n">
-        <v>-1.009503655026222</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-399.064932255578</v>
-      </c>
-      <c r="D31" t="n">
-        <v>423.8063012509759</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="B32" t="n">
+        <v>34.41827021210656</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-341.48845954127</v>
+      </c>
+      <c r="D32" t="n">
+        <v>431.1132047185467</v>
+      </c>
+      <c r="E32" t="n">
         <v>130</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F32" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1137,22 +1157,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>198002.4004490429</v>
+        <v>184036.7932615737</v>
       </c>
       <c r="C2" t="n">
-        <v>444.974606521589</v>
+        <v>428.9950970134434</v>
       </c>
       <c r="D2" t="n">
-        <v>378.9066861701888</v>
+        <v>360.5852471474847</v>
       </c>
       <c r="E2" t="n">
-        <v>2.203556961264268</v>
+        <v>2.043089023823733</v>
       </c>
       <c r="F2" t="n">
-        <v>2.041478338576899</v>
+        <v>1.878759721947186</v>
       </c>
       <c r="G2" t="n">
-        <v>1.464187998874175</v>
+        <v>1.369622024326809</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
@@ -1163,25 +1183,25 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>132003.6481801402</v>
+        <v>65093.00028862726</v>
       </c>
       <c r="C3" t="n">
-        <v>363.3230630996884</v>
+        <v>255.1332990588004</v>
       </c>
       <c r="D3" t="n">
-        <v>253.4306698444639</v>
+        <v>155.667836324877</v>
       </c>
       <c r="E3" t="n">
-        <v>1.473898047103658</v>
+        <v>0.7569913549299017</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6498322994094182</v>
+        <v>0.2255926828764359</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9810210961623101</v>
+        <v>0.54206361828625</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="4">
@@ -1189,25 +1209,25 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>73052.37318444865</v>
+        <v>8227.149869211267</v>
       </c>
       <c r="C4" t="n">
-        <v>270.282025270732</v>
+        <v>90.70363757430717</v>
       </c>
       <c r="D4" t="n">
-        <v>175.6036071135271</v>
+        <v>74.11533552644065</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8163237679401073</v>
+        <v>0.1372991114077983</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2308341237736166</v>
+        <v>0.1840122932574218</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5799425945086192</v>
+        <v>0.1530756376815026</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1215,25 +1235,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>78121.8909635311</v>
+        <v>67720.08112714843</v>
       </c>
       <c r="C5" t="n">
-        <v>279.5029355186294</v>
+        <v>260.2308227845972</v>
       </c>
       <c r="D5" t="n">
-        <v>217.0306872625839</v>
+        <v>199.6699429746192</v>
       </c>
       <c r="E5" t="n">
-        <v>1.290465977454533</v>
+        <v>1.195262270586125</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6046614420119534</v>
+        <v>0.6298411054047384</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6868182062320507</v>
+        <v>0.6411305264056496</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8260869565217396</v>
+        <v>0.9130434782608697</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAFAR4421118/OBAFAR4421118_Sell in_metricas.xlsx
+++ b/modelos/OBAFAR4421118/OBAFAR4421118_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,59 +473,59 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44852</v>
+        <v>44859</v>
       </c>
       <c r="B2" t="n">
-        <v>363.9714390480751</v>
+        <v>184.0533505057358</v>
       </c>
       <c r="C2" t="n">
-        <v>-74.3506656987326</v>
+        <v>-256.5911737173154</v>
       </c>
       <c r="D2" t="n">
-        <v>773.9359126943455</v>
+        <v>588.5462407636281</v>
       </c>
       <c r="E2" t="n">
-        <v>470</v>
+        <v>170</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44848</v>
+        <v>44855</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44859</v>
+        <v>44865</v>
       </c>
       <c r="B3" t="n">
-        <v>169.6102991247787</v>
+        <v>-433.8423217322853</v>
       </c>
       <c r="C3" t="n">
-        <v>-218.2330570811989</v>
+        <v>-830.8514363623477</v>
       </c>
       <c r="D3" t="n">
-        <v>589.9447062079674</v>
+        <v>-6.458559046721308</v>
       </c>
       <c r="E3" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44855</v>
+        <v>44862</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44865</v>
+        <v>44869</v>
       </c>
       <c r="B4" t="n">
-        <v>-435.949051725399</v>
+        <v>-330.7302855537492</v>
       </c>
       <c r="C4" t="n">
-        <v>-812.3596751366455</v>
+        <v>-745.2448560182169</v>
       </c>
       <c r="D4" t="n">
-        <v>-15.70784832114568</v>
+        <v>78.48901569742965</v>
       </c>
       <c r="E4" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>44862</v>
@@ -533,39 +533,39 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44869</v>
+        <v>44897</v>
       </c>
       <c r="B5" t="n">
-        <v>-317.7318630201445</v>
+        <v>83.23962410097893</v>
       </c>
       <c r="C5" t="n">
-        <v>-691.34939696478</v>
+        <v>-334.1670819277433</v>
       </c>
       <c r="D5" t="n">
-        <v>83.82261422791849</v>
+        <v>498.129153788313</v>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>650</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44862</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="B6" t="n">
-        <v>68.39309834137454</v>
+        <v>257.0027388281313</v>
       </c>
       <c r="C6" t="n">
-        <v>-303.5679698138133</v>
+        <v>-171.004917222271</v>
       </c>
       <c r="D6" t="n">
-        <v>449.6865842770666</v>
+        <v>638.0968695950351</v>
       </c>
       <c r="E6" t="n">
-        <v>650</v>
+        <v>910</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>44894</v>
@@ -573,199 +573,199 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="B7" t="n">
+        <v>216.7709154832918</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-204.733978183354</v>
+      </c>
+      <c r="D7" t="n">
+        <v>694.8778118141885</v>
+      </c>
+      <c r="E7" t="n">
+        <v>140</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>44901</v>
-      </c>
-      <c r="B7" t="n">
-        <v>240.305370373884</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-183.1806400462696</v>
-      </c>
-      <c r="D7" t="n">
-        <v>642.3256601321204</v>
-      </c>
-      <c r="E7" t="n">
-        <v>910</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>44894</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
+        <v>44915</v>
+      </c>
+      <c r="B8" t="n">
+        <v>246.5639631423481</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-180.4782860370491</v>
+      </c>
+      <c r="D8" t="n">
+        <v>646.6887966450538</v>
+      </c>
+      <c r="E8" t="n">
+        <v>210</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>44908</v>
-      </c>
-      <c r="B8" t="n">
-        <v>228.1777547566634</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-205.5519700556084</v>
-      </c>
-      <c r="D8" t="n">
-        <v>647.7069235832776</v>
-      </c>
-      <c r="E8" t="n">
-        <v>140</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>44901</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
+        <v>44922</v>
+      </c>
+      <c r="B9" t="n">
+        <v>437.2331876566456</v>
+      </c>
+      <c r="C9" t="n">
+        <v>26.57891400258207</v>
+      </c>
+      <c r="D9" t="n">
+        <v>855.0482994078685</v>
+      </c>
+      <c r="E9" t="n">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <v>44915</v>
-      </c>
-      <c r="B9" t="n">
-        <v>238.7254697213039</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-161.2143126765759</v>
-      </c>
-      <c r="D9" t="n">
-        <v>671.5669231244754</v>
-      </c>
-      <c r="E9" t="n">
-        <v>210</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>44908</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B10" t="n">
+        <v>560.1114951607111</v>
+      </c>
+      <c r="C10" t="n">
+        <v>150.3051350060844</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1005.43044128685</v>
+      </c>
+      <c r="E10" t="n">
+        <v>190</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>44922</v>
-      </c>
-      <c r="B10" t="n">
-        <v>364.1699055569585</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-65.61818094226149</v>
-      </c>
-      <c r="D10" t="n">
-        <v>746.4371626607536</v>
-      </c>
-      <c r="E10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>44915</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="B11" t="n">
+        <v>545.2386535126293</v>
+      </c>
+      <c r="C11" t="n">
+        <v>143.6357476434746</v>
+      </c>
+      <c r="D11" t="n">
+        <v>966.4390670712236</v>
+      </c>
+      <c r="E11" t="n">
+        <v>290</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>44929</v>
-      </c>
-      <c r="B11" t="n">
-        <v>429.440063329965</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-11.73675235168345</v>
-      </c>
-      <c r="D11" t="n">
-        <v>834.7776313882492</v>
-      </c>
-      <c r="E11" t="n">
-        <v>190</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>44922</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="B12" t="n">
+        <v>406.5588020087345</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1.111090020131054</v>
+      </c>
+      <c r="D12" t="n">
+        <v>855.4665739433177</v>
+      </c>
+      <c r="E12" t="n">
+        <v>790</v>
+      </c>
+      <c r="F12" s="2" t="n">
         <v>44936</v>
-      </c>
-      <c r="B12" t="n">
-        <v>386.5505563242751</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-34.76116034184427</v>
-      </c>
-      <c r="D12" t="n">
-        <v>767.5591096541117</v>
-      </c>
-      <c r="E12" t="n">
-        <v>290</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>44929</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
+        <v>44950</v>
+      </c>
+      <c r="B13" t="n">
+        <v>340.60661813977</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-81.65523404282092</v>
+      </c>
+      <c r="D13" t="n">
+        <v>731.6560279935399</v>
+      </c>
+      <c r="E13" t="n">
+        <v>330</v>
+      </c>
+      <c r="F13" s="2" t="n">
         <v>44943</v>
-      </c>
-      <c r="B13" t="n">
-        <v>308.2284008394002</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-112.6117326050399</v>
-      </c>
-      <c r="D13" t="n">
-        <v>715.5185735524763</v>
-      </c>
-      <c r="E13" t="n">
-        <v>790</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>44936</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B14" t="n">
+        <v>293.0200644766806</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-159.7318027964014</v>
+      </c>
+      <c r="D14" t="n">
+        <v>691.4773314550894</v>
+      </c>
+      <c r="E14" t="n">
+        <v>130</v>
+      </c>
+      <c r="F14" s="2" t="n">
         <v>44950</v>
-      </c>
-      <c r="B14" t="n">
-        <v>306.1321650775109</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-94.19077280369612</v>
-      </c>
-      <c r="D14" t="n">
-        <v>743.7863741722282</v>
-      </c>
-      <c r="E14" t="n">
-        <v>330</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>44943</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20.10701618660585</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-396.0758319737157</v>
+      </c>
+      <c r="D15" t="n">
+        <v>441.7639227582311</v>
+      </c>
+      <c r="E15" t="n">
+        <v>90</v>
+      </c>
+      <c r="F15" s="2" t="n">
         <v>44957</v>
-      </c>
-      <c r="B15" t="n">
-        <v>308.5824831659869</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-101.9854845269394</v>
-      </c>
-      <c r="D15" t="n">
-        <v>714.4663307863714</v>
-      </c>
-      <c r="E15" t="n">
-        <v>130</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>44950</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="B16" t="n">
-        <v>44.23413240918912</v>
+        <v>280.4593380449111</v>
       </c>
       <c r="C16" t="n">
-        <v>-384.2992505518594</v>
+        <v>-143.0106566190269</v>
       </c>
       <c r="D16" t="n">
-        <v>462.467560733376</v>
+        <v>669.0822423482115</v>
       </c>
       <c r="E16" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>44957</v>
@@ -773,59 +773,59 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="B17" t="n">
+        <v>293.7085491795048</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-152.5911369077861</v>
+      </c>
+      <c r="D17" t="n">
+        <v>735.5316402023651</v>
+      </c>
+      <c r="E17" t="n">
+        <v>250</v>
+      </c>
+      <c r="F17" s="2" t="n">
         <v>44964</v>
-      </c>
-      <c r="B17" t="n">
-        <v>287.0112557835837</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-97.44282404173391</v>
-      </c>
-      <c r="D17" t="n">
-        <v>685.8647993844754</v>
-      </c>
-      <c r="E17" t="n">
-        <v>170</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>44957</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44971</v>
+        <v>44980</v>
       </c>
       <c r="B18" t="n">
-        <v>277.1597578092266</v>
+        <v>-178.6374074644195</v>
       </c>
       <c r="C18" t="n">
-        <v>-126.449307002607</v>
+        <v>-610.8745881045646</v>
       </c>
       <c r="D18" t="n">
-        <v>680.2143896176595</v>
+        <v>218.4949264307279</v>
       </c>
       <c r="E18" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44964</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="B19" t="n">
-        <v>-176.6557382623677</v>
+        <v>509.280051592959</v>
       </c>
       <c r="C19" t="n">
-        <v>-583.4262662480572</v>
+        <v>72.86375868014395</v>
       </c>
       <c r="D19" t="n">
-        <v>239.1171761452891</v>
+        <v>946.1413215446529</v>
       </c>
       <c r="E19" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>44978</v>
@@ -833,39 +833,39 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="B20" t="n">
+        <v>298.3160115184535</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-82.06159169868133</v>
+      </c>
+      <c r="D20" t="n">
+        <v>726.594114968911</v>
+      </c>
+      <c r="E20" t="n">
+        <v>80</v>
+      </c>
+      <c r="F20" s="2" t="n">
         <v>44985</v>
-      </c>
-      <c r="B20" t="n">
-        <v>499.5069115556726</v>
-      </c>
-      <c r="C20" t="n">
-        <v>83.47111710767609</v>
-      </c>
-      <c r="D20" t="n">
-        <v>877.5126996138415</v>
-      </c>
-      <c r="E20" t="n">
-        <v>100</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>44978</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="B21" t="n">
-        <v>309.0191676151035</v>
+        <v>644.6076791258658</v>
       </c>
       <c r="C21" t="n">
-        <v>-121.9332985785562</v>
+        <v>241.9137501613205</v>
       </c>
       <c r="D21" t="n">
-        <v>691.3767967081752</v>
+        <v>1064.981255386821</v>
       </c>
       <c r="E21" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>44985</v>
@@ -873,221 +873,201 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>665.0411676841736</v>
+      </c>
+      <c r="C22" t="n">
+        <v>262.3201788849444</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1065.330367864563</v>
+      </c>
+      <c r="E22" t="n">
+        <v>510</v>
+      </c>
+      <c r="F22" s="2" t="n">
         <v>44992</v>
-      </c>
-      <c r="B22" t="n">
-        <v>647.7539092598339</v>
-      </c>
-      <c r="C22" t="n">
-        <v>237.4639148408374</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1080.295586866727</v>
-      </c>
-      <c r="E22" t="n">
-        <v>240</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>44985</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="B23" t="n">
+        <v>527.3393120390731</v>
+      </c>
+      <c r="C23" t="n">
+        <v>136.0950200517566</v>
+      </c>
+      <c r="D23" t="n">
+        <v>954.2773829290558</v>
+      </c>
+      <c r="E23" t="n">
+        <v>330</v>
+      </c>
+      <c r="F23" s="2" t="n">
         <v>44999</v>
-      </c>
-      <c r="B23" t="n">
-        <v>668.5148524982286</v>
-      </c>
-      <c r="C23" t="n">
-        <v>257.0356190256744</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1065.480831763257</v>
-      </c>
-      <c r="E23" t="n">
-        <v>510</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>44992</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="B24" t="n">
+        <v>311.2716719142134</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-82.29029644872864</v>
+      </c>
+      <c r="D24" t="n">
+        <v>752.2117121770056</v>
+      </c>
+      <c r="E24" t="n">
+        <v>170</v>
+      </c>
+      <c r="F24" s="2" t="n">
         <v>45006</v>
-      </c>
-      <c r="B24" t="n">
-        <v>524.0358441718065</v>
-      </c>
-      <c r="C24" t="n">
-        <v>154.3997954435922</v>
-      </c>
-      <c r="D24" t="n">
-        <v>946.7016173223798</v>
-      </c>
-      <c r="E24" t="n">
-        <v>330</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>44999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="B25" t="n">
+        <v>232.9723717755091</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-188.0707336245923</v>
+      </c>
+      <c r="D25" t="n">
+        <v>638.2138419438994</v>
+      </c>
+      <c r="E25" t="n">
+        <v>190</v>
+      </c>
+      <c r="F25" s="2" t="n">
         <v>45013</v>
-      </c>
-      <c r="B25" t="n">
-        <v>298.3766070512719</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-71.98507670830851</v>
-      </c>
-      <c r="D25" t="n">
-        <v>713.7926960843687</v>
-      </c>
-      <c r="E25" t="n">
-        <v>170</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>45006</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="B26" t="n">
+        <v>419.5557288128397</v>
+      </c>
+      <c r="C26" t="n">
+        <v>36.63652883202275</v>
+      </c>
+      <c r="D26" t="n">
+        <v>802.3385267404428</v>
+      </c>
+      <c r="E26" t="n">
+        <v>490</v>
+      </c>
+      <c r="F26" s="2" t="n">
         <v>45020</v>
-      </c>
-      <c r="B26" t="n">
-        <v>223.7427295965515</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-154.7957302394579</v>
-      </c>
-      <c r="D26" t="n">
-        <v>635.0884735443402</v>
-      </c>
-      <c r="E26" t="n">
-        <v>190</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>45013</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B27" t="n">
+        <v>733.3197013939684</v>
+      </c>
+      <c r="C27" t="n">
+        <v>333.9670404089701</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1134.221135911766</v>
+      </c>
+      <c r="E27" t="n">
+        <v>670</v>
+      </c>
+      <c r="F27" s="2" t="n">
         <v>45027</v>
-      </c>
-      <c r="B27" t="n">
-        <v>423.6464405081309</v>
-      </c>
-      <c r="C27" t="n">
-        <v>21.68478499136256</v>
-      </c>
-      <c r="D27" t="n">
-        <v>820.1249859854777</v>
-      </c>
-      <c r="E27" t="n">
-        <v>490</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>45020</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B28" t="n">
+        <v>517.6508992810301</v>
+      </c>
+      <c r="C28" t="n">
+        <v>119.298963259158</v>
+      </c>
+      <c r="D28" t="n">
+        <v>956.3300925159294</v>
+      </c>
+      <c r="E28" t="n">
+        <v>630</v>
+      </c>
+      <c r="F28" s="2" t="n">
         <v>45034</v>
-      </c>
-      <c r="B28" t="n">
-        <v>732.2947537439871</v>
-      </c>
-      <c r="C28" t="n">
-        <v>323.8281865306028</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1139.480877598322</v>
-      </c>
-      <c r="E28" t="n">
-        <v>670</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>45027</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45040</v>
+        <v>45048</v>
       </c>
       <c r="B29" t="n">
-        <v>514.0722552478243</v>
+        <v>757.8727714223683</v>
       </c>
       <c r="C29" t="n">
-        <v>109.9561341182888</v>
+        <v>323.599995487394</v>
       </c>
       <c r="D29" t="n">
-        <v>904.6229294961295</v>
+        <v>1147.593633015592</v>
       </c>
       <c r="E29" t="n">
-        <v>630</v>
+        <v>500</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45034</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B30" t="n">
+        <v>349.3054375397784</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-71.03320877922337</v>
+      </c>
+      <c r="D30" t="n">
+        <v>726.1162554270214</v>
+      </c>
+      <c r="E30" t="n">
+        <v>200</v>
+      </c>
+      <c r="F30" s="2" t="n">
         <v>45048</v>
-      </c>
-      <c r="B30" t="n">
-        <v>745.321321291455</v>
-      </c>
-      <c r="C30" t="n">
-        <v>372.1358448218978</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1151.411175729717</v>
-      </c>
-      <c r="E30" t="n">
-        <v>500</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>45041</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45055</v>
+        <v>45062</v>
       </c>
       <c r="B31" t="n">
-        <v>348.0432967903595</v>
+        <v>32.04612929757729</v>
       </c>
       <c r="C31" t="n">
-        <v>-40.27520623234304</v>
+        <v>-365.7446950665561</v>
       </c>
       <c r="D31" t="n">
-        <v>744.3344622535773</v>
+        <v>428.8591044247875</v>
       </c>
       <c r="E31" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45048</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B32" t="n">
-        <v>34.41827021210656</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-341.48845954127</v>
-      </c>
-      <c r="D32" t="n">
-        <v>431.1132047185467</v>
-      </c>
-      <c r="E32" t="n">
-        <v>130</v>
-      </c>
-      <c r="F32" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1157,22 +1137,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>184036.7932615737</v>
+        <v>178659.0226016524</v>
       </c>
       <c r="C2" t="n">
-        <v>428.9950970134434</v>
+        <v>422.6807573117712</v>
       </c>
       <c r="D2" t="n">
-        <v>360.5852471474847</v>
+        <v>359.7029232407884</v>
       </c>
       <c r="E2" t="n">
-        <v>2.043089023823733</v>
+        <v>2.067440009436233</v>
       </c>
       <c r="F2" t="n">
-        <v>1.878759721947186</v>
+        <v>1.800444591912658</v>
       </c>
       <c r="G2" t="n">
-        <v>1.369622024326809</v>
+        <v>1.492400092510409</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
@@ -1183,25 +1163,25 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>65093.00028862726</v>
+        <v>119171.847287914</v>
       </c>
       <c r="C3" t="n">
-        <v>255.1332990588004</v>
+        <v>345.2127565544384</v>
       </c>
       <c r="D3" t="n">
-        <v>155.667836324877</v>
+        <v>244.4863989957708</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7569913549299017</v>
+        <v>1.405848928851088</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2255926828764359</v>
+        <v>0.7765887090377128</v>
       </c>
       <c r="G3" t="n">
-        <v>0.54206361828625</v>
+        <v>1.021395227168037</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -1209,25 +1189,25 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>8227.149869211267</v>
+        <v>63826.27989815024</v>
       </c>
       <c r="C4" t="n">
-        <v>90.70363757430717</v>
+        <v>252.6386350069012</v>
       </c>
       <c r="D4" t="n">
-        <v>74.11533552644065</v>
+        <v>162.0351248218314</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1372991114077983</v>
+        <v>0.776146227673386</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1840122932574218</v>
+        <v>0.1783319059031268</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1530756376815026</v>
+        <v>0.5891917560744764</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="5">
@@ -1235,22 +1215,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>67720.08112714843</v>
+        <v>72064.61922651211</v>
       </c>
       <c r="C5" t="n">
-        <v>260.2308227845972</v>
+        <v>268.4485411145162</v>
       </c>
       <c r="D5" t="n">
-        <v>199.6699429746192</v>
+        <v>212.1865146039509</v>
       </c>
       <c r="E5" t="n">
-        <v>1.195262270586125</v>
+        <v>1.318500624488537</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6298411054047384</v>
+        <v>0.6497608120288887</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6411305264056496</v>
+        <v>0.6596585781759661</v>
       </c>
       <c r="H5" t="n">
         <v>0.9130434782608697</v>
